--- a/Roomba980Fields.xlsx
+++ b/Roomba980Fields.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="184">
   <si>
     <t>audio-active</t>
   </si>
@@ -522,15 +522,6 @@
     <t>Protokoll: Schmutzerkennungszähler</t>
   </si>
   <si>
-    <t>Gereinigte Fläche in sqft (Letzter Auftrag)</t>
-  </si>
-  <si>
-    <t>Aus FHEM-Modul: connected/disconnected</t>
-  </si>
-  <si>
-    <t>Das wird angezeigt, wenn in Station</t>
-  </si>
-  <si>
     <t>Mögliche Sprachen</t>
   </si>
   <si>
@@ -556,6 +547,27 @@
   </si>
   <si>
     <t>Netmask</t>
+  </si>
+  <si>
+    <t>Mögliche Werte: run, stop, charge</t>
+  </si>
+  <si>
+    <t>Mögliche Werte: none, quick</t>
+  </si>
+  <si>
+    <t>Gereinigte Fläche in square feet (Letzter Auftrag)</t>
+  </si>
+  <si>
+    <t>Wahrscheinlich irgend etwas in Minuten</t>
+  </si>
+  <si>
+    <t>Gesamtfläche in sqare feet (kann aber eigentlich nicht sein...)</t>
+  </si>
+  <si>
+    <t>Das wird angezeigt, wenn in Station (Basis Position bekannt/erkannt?)</t>
+  </si>
+  <si>
+    <t>Aus FHEM-Modul: connected/disconnected ("active"?)</t>
   </si>
 </sst>
 </file>
@@ -889,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1247,6 +1259,9 @@
       <c r="B40">
         <v>29</v>
       </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
@@ -1392,6 +1407,9 @@
       <c r="B57" t="s">
         <v>61</v>
       </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
@@ -1424,6 +1442,9 @@
       <c r="B61">
         <v>45</v>
       </c>
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
@@ -1448,6 +1469,9 @@
       <c r="B64" t="s">
         <v>70</v>
       </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
@@ -1465,7 +1489,7 @@
         <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1517,7 +1541,7 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1536,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1555,7 +1579,7 @@
         <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1566,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1625,7 +1649,7 @@
         <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1644,7 +1668,7 @@
         <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1663,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1674,7 +1698,7 @@
         <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1685,7 +1709,7 @@
         <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1696,7 +1720,7 @@
         <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1707,7 +1731,7 @@
         <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:3">
